--- a/parameter_files/v2/entity_list.xlsx
+++ b/parameter_files/v2/entity_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{9B5B270A-A4B1-448C-A90D-73D5A1A125A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6836CBBB-5C8E-4E93-A7C5-1107E79DD1FC}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{9B5B270A-A4B1-448C-A90D-73D5A1A125A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A491B4BB-BE25-4A02-B51A-56913999D561}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{48D6A96F-44BE-4B70-8FC3-216E0C53B229}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{48D6A96F-44BE-4B70-8FC3-216E0C53B229}"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>small growers</t>
   </si>
@@ -140,16 +140,25 @@
   </si>
   <si>
     <t>GSAs</t>
+  </si>
+  <si>
+    <t>Groundwater Management (SWRCB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,8 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,10 +616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCEB112-4D23-4ECC-82D9-4A52465C8422}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,52 +673,57 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="A10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
